--- a/data/excel/२०२५/०१/१२.xlsx
+++ b/data/excel/२०२५/०१/१२.xlsx
@@ -16,22 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Max Price</t>
+  </si>
+  <si>
     <t>Min Price</t>
   </si>
   <si>
     <t>Avg Price</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Max Price</t>
+    <t>६५.००</t>
+  </si>
+  <si>
+    <t>२०२५-०१-१२</t>
   </si>
   <si>
     <t>गोलभेडा ठूलो(भारतीय)</t>
@@ -46,12 +52,6 @@
     <t>६०.००</t>
   </si>
   <si>
-    <t>६५.००</t>
-  </si>
-  <si>
-    <t>२०२५-०१-१२</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(लोकल)</t>
   </si>
   <si>
@@ -94,15 +94,15 @@
     <t>४२.६७</t>
   </si>
   <si>
+    <t>४१.००</t>
+  </si>
+  <si>
+    <t>आलु रातो(भारतीय)</t>
+  </si>
+  <si>
     <t>४२.००</t>
   </si>
   <si>
-    <t>४१.००</t>
-  </si>
-  <si>
-    <t>आलु रातो(भारतीय)</t>
-  </si>
-  <si>
     <t>प्याज सुकेको (भारतीय)</t>
   </si>
   <si>
@@ -112,24 +112,24 @@
     <t>६९.००</t>
   </si>
   <si>
+    <t>गाजर(लोकल)</t>
+  </si>
+  <si>
+    <t>८०.००</t>
+  </si>
+  <si>
     <t>७५.००</t>
   </si>
   <si>
-    <t>गाजर(लोकल)</t>
-  </si>
-  <si>
-    <t>८०.००</t>
-  </si>
-  <si>
     <t>गाजर(तराई)</t>
   </si>
   <si>
+    <t>२७.६७</t>
+  </si>
+  <si>
     <t>बन्दा(लोकल)</t>
   </si>
   <si>
-    <t>२७.६७</t>
-  </si>
-  <si>
     <t>१५.००</t>
   </si>
   <si>
@@ -160,36 +160,36 @@
     <t>मूला सेतो(लोकल)</t>
   </si>
   <si>
+    <t>सेतो मूला(हाइब्रीड)</t>
+  </si>
+  <si>
     <t>३७.६७</t>
   </si>
   <si>
-    <t>सेतो मूला(हाइब्रीड)</t>
+    <t>५०.००</t>
+  </si>
+  <si>
+    <t>५५.००</t>
   </si>
   <si>
     <t>भन्टा लाम्चो</t>
   </si>
   <si>
-    <t>५०.००</t>
-  </si>
-  <si>
-    <t>५५.००</t>
-  </si>
-  <si>
     <t>भन्टा डल्लो</t>
   </si>
   <si>
     <t>मकै बोडी</t>
   </si>
   <si>
+    <t>मटरकोशा</t>
+  </si>
+  <si>
+    <t>९०.००</t>
+  </si>
+  <si>
     <t>८५.००</t>
   </si>
   <si>
-    <t>मटरकोशा</t>
-  </si>
-  <si>
-    <t>९०.००</t>
-  </si>
-  <si>
     <t>घिउ सिमी(लोकल)</t>
   </si>
   <si>
@@ -208,15 +208,15 @@
     <t>लौका</t>
   </si>
   <si>
+    <t>परवर(तराई)</t>
+  </si>
+  <si>
+    <t>१००.००</t>
+  </si>
+  <si>
     <t>९५.००</t>
   </si>
   <si>
-    <t>परवर(तराई)</t>
-  </si>
-  <si>
-    <t>१००.००</t>
-  </si>
-  <si>
     <t>फर्सी पाकेको</t>
   </si>
   <si>
@@ -283,18 +283,18 @@
     <t>१०३.३३</t>
   </si>
   <si>
+    <t>३३०.००</t>
+  </si>
+  <si>
+    <t>३५३.३३</t>
+  </si>
+  <si>
     <t>च्याउ(डल्ले)</t>
   </si>
   <si>
     <t>३८०.००</t>
   </si>
   <si>
-    <t>३३०.००</t>
-  </si>
-  <si>
-    <t>३५३.३३</t>
-  </si>
-  <si>
     <t>ब्रोकाउली</t>
   </si>
   <si>
@@ -310,6 +310,9 @@
     <t>ग्याठ कोबी</t>
   </si>
   <si>
+    <t>सेलरी</t>
+  </si>
+  <si>
     <t>४००.००</t>
   </si>
   <si>
@@ -319,7 +322,10 @@
     <t>३५०.००</t>
   </si>
   <si>
-    <t>सेलरी</t>
+    <t>७००.००</t>
+  </si>
+  <si>
+    <t>७५०.००</t>
   </si>
   <si>
     <t>पार्सले</t>
@@ -328,12 +334,6 @@
     <t>८००.००</t>
   </si>
   <si>
-    <t>७००.००</t>
-  </si>
-  <si>
-    <t>७५०.००</t>
-  </si>
-  <si>
     <t>सौफको साग</t>
   </si>
   <si>
@@ -343,25 +343,28 @@
     <t>गान्टे मूला</t>
   </si>
   <si>
+    <t>१५०.००</t>
+  </si>
+  <si>
+    <t>१५५.००</t>
+  </si>
+  <si>
     <t>इमली</t>
   </si>
   <si>
     <t>१६०.००</t>
   </si>
   <si>
-    <t>१५०.००</t>
-  </si>
-  <si>
-    <t>१५५.००</t>
-  </si>
-  <si>
     <t>तामा</t>
   </si>
   <si>
+    <t>११५.००</t>
+  </si>
+  <si>
     <t>तोफु</t>
   </si>
   <si>
-    <t>११५.००</t>
+    <t>२८०.००</t>
   </si>
   <si>
     <t>२९०.००</t>
@@ -370,21 +373,18 @@
     <t>गुन्दुक</t>
   </si>
   <si>
-    <t>२८०.००</t>
+    <t>२६०.००</t>
+  </si>
+  <si>
+    <t>२४०.००</t>
+  </si>
+  <si>
+    <t>२५०.००</t>
   </si>
   <si>
     <t>स्याउ(झोले)</t>
   </si>
   <si>
-    <t>२६०.००</t>
-  </si>
-  <si>
-    <t>२४०.००</t>
-  </si>
-  <si>
-    <t>२५०.००</t>
-  </si>
-  <si>
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
@@ -451,22 +451,22 @@
     <t>निबुवा</t>
   </si>
   <si>
+    <t>नासपाती(चाइनिज)</t>
+  </si>
+  <si>
     <t>२३०.००</t>
   </si>
   <si>
-    <t>नासपाती(चाइनिज)</t>
-  </si>
-  <si>
     <t>मेवा(नेपाली)</t>
   </si>
   <si>
     <t>मेवा(भारतीय)</t>
   </si>
   <si>
+    <t>१०५.००</t>
+  </si>
+  <si>
     <t>अम्बा</t>
-  </si>
-  <si>
-    <t>१०५.००</t>
   </si>
   <si>
     <t>लप्सी</t>
@@ -874,47 +874,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -994,27 +994,27 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -1034,50 +1034,50 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1089,18 +1089,18 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
@@ -1229,18 +1229,18 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -1249,32 +1249,32 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -1283,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -1294,47 +1294,47 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
         <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -1343,58 +1343,58 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -1423,18 +1423,18 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
         <v>57</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
@@ -1443,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>24</v>
@@ -1454,27 +1454,27 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>66</v>
-      </c>
-      <c r="E30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -1483,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>24</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>68</v>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
@@ -1543,18 +1543,18 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
         <v>66</v>
-      </c>
-      <c r="E34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
@@ -1563,18 +1563,18 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
         <v>66</v>
-      </c>
-      <c r="E35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -1583,18 +1583,18 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
         <v>34</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>74</v>
@@ -1623,18 +1623,18 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
         <v>66</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>76</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>78</v>
@@ -1683,18 +1683,18 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
         <v>34</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>79</v>
@@ -1703,18 +1703,18 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>34</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
@@ -1743,18 +1743,18 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
         <v>34</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>82</v>
@@ -1763,18 +1763,18 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
         <v>51</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>83</v>
@@ -1783,18 +1783,18 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
         <v>34</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>84</v>
@@ -1806,7 +1806,7 @@
         <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F47" t="s">
         <v>86</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>87</v>
@@ -1826,7 +1826,7 @@
         <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
         <v>88</v>
@@ -1834,27 +1834,27 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
       </c>
       <c r="D49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" t="s">
         <v>90</v>
-      </c>
-      <c r="E49" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>93</v>
@@ -1863,7 +1863,7 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
         <v>24</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>94</v>
@@ -1883,18 +1883,18 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
         <v>57</v>
-      </c>
-      <c r="E51" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>95</v>
@@ -1903,18 +1903,18 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>96</v>
@@ -1923,18 +1923,18 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>97</v>
@@ -1943,58 +1943,58 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" t="s">
         <v>57</v>
-      </c>
-      <c r="E54" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
         <v>101</v>
-      </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
         <v>102</v>
       </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>103</v>
-      </c>
-      <c r="E56" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>106</v>
@@ -2003,18 +2003,18 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
         <v>34</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>107</v>
@@ -2023,18 +2023,18 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>108</v>
@@ -2043,38 +2043,38 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
         <v>34</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" t="s">
         <v>109</v>
       </c>
-      <c r="C60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
         <v>110</v>
-      </c>
-      <c r="E60" t="s">
-        <v>111</v>
-      </c>
-      <c r="F60" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>113</v>
@@ -2083,21 +2083,21 @@
         <v>13</v>
       </c>
       <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" t="s">
         <v>66</v>
-      </c>
-      <c r="E61" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -2109,52 +2109,52 @@
         <v>86</v>
       </c>
       <c r="F62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
-      </c>
-      <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
         <v>119</v>
       </c>
-      <c r="C64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>120</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
@@ -2163,18 +2163,18 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>124</v>
@@ -2186,15 +2186,15 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>127</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>131</v>
@@ -2223,10 +2223,10 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F68" t="s">
         <v>132</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>133</v>
@@ -2243,7 +2243,7 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
         <v>134</v>
@@ -2254,19 +2254,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F70" t="s">
         <v>136</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>139</v>
@@ -2286,7 +2286,7 @@
         <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F71" t="s">
         <v>138</v>
@@ -2294,27 +2294,27 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
         <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" t="s">
         <v>66</v>
-      </c>
-      <c r="E72" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
         <v>142</v>
@@ -2329,12 +2329,12 @@
         <v>86</v>
       </c>
       <c r="F73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
         <v>143</v>
@@ -2343,18 +2343,18 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" t="s">
         <v>57</v>
-      </c>
-      <c r="E74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>144</v>
@@ -2363,7 +2363,7 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E75" t="s">
         <v>24</v>
@@ -2374,27 +2374,27 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" t="s">
         <v>146</v>
       </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>122</v>
-      </c>
-      <c r="E76" t="s">
-        <v>145</v>
-      </c>
       <c r="F76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
         <v>147</v>
@@ -2403,41 +2403,41 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" t="s">
         <v>51</v>
-      </c>
-      <c r="F77" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>148</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F78" t="s">
         <v>66</v>
-      </c>
-      <c r="E78" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -2446,15 +2446,15 @@
         <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
         <v>151</v>
@@ -2463,7 +2463,7 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E80" t="s">
         <v>24</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
         <v>152</v>
@@ -2486,7 +2486,7 @@
         <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
         <v>154</v>
@@ -2494,16 +2494,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
         <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E82" t="s">
         <v>134</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
         <v>157</v>
@@ -2523,7 +2523,7 @@
         <v>158</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E83" t="s">
         <v>134</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
         <v>159</v>
@@ -2543,18 +2543,18 @@
         <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>160</v>
@@ -2569,12 +2569,12 @@
         <v>86</v>
       </c>
       <c r="F85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>162</v>
@@ -2583,10 +2583,10 @@
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F86" t="s">
         <v>161</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>163</v>
@@ -2603,18 +2603,18 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" t="s">
         <v>51</v>
-      </c>
-      <c r="F87" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
         <v>164</v>
@@ -2623,18 +2623,18 @@
         <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
         <v>165</v>
@@ -2643,18 +2643,18 @@
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" t="s">
         <v>51</v>
-      </c>
-      <c r="F89" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>166</v>
@@ -2663,18 +2663,18 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E90" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F90" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
         <v>167</v>
@@ -2683,18 +2683,18 @@
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
         <v>168</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
         <v>169</v>
@@ -2723,18 +2723,18 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
+        <v>50</v>
+      </c>
+      <c r="F93" t="s">
         <v>51</v>
-      </c>
-      <c r="F93" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
         <v>170</v>
@@ -2743,18 +2743,18 @@
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E94" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
         <v>171</v>
@@ -2763,18 +2763,18 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
         <v>172</v>
@@ -2783,18 +2783,18 @@
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" t="s">
         <v>128</v>
       </c>
       <c r="F96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
         <v>173</v>
@@ -2803,7 +2803,7 @@
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E97" t="s">
         <v>134</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
         <v>175</v>
@@ -2823,10 +2823,10 @@
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F98" t="s">
         <v>174</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
         <v>176</v>
@@ -2843,18 +2843,18 @@
         <v>18</v>
       </c>
       <c r="D99" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" t="s">
         <v>120</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>121</v>
-      </c>
-      <c r="F99" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
         <v>177</v>
@@ -2863,18 +2863,18 @@
         <v>18</v>
       </c>
       <c r="D100" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" t="s">
         <v>120</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>121</v>
-      </c>
-      <c r="F100" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
         <v>179</v>
@@ -2886,7 +2886,7 @@
         <v>154</v>
       </c>
       <c r="E101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F101" t="s">
         <v>178</v>
@@ -2894,27 +2894,27 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
         <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E102" t="s">
         <v>128</v>
       </c>
       <c r="F102" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
         <v>181</v>
@@ -2923,18 +2923,18 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F103" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
         <v>182</v>
@@ -2943,13 +2943,13 @@
         <v>13</v>
       </c>
       <c r="D104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" t="s">
         <v>103</v>
-      </c>
-      <c r="E104" t="s">
-        <v>104</v>
-      </c>
-      <c r="F104" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
